--- a/res/map.xlsx
+++ b/res/map.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BF1C2FD-BAC9-42A3-8AE3-EB7CEC02EF57}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{10B9CCEB-6D89-4E25-A037-A7B3B3CF59B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="25935" windowHeight="14430" xr2:uid="{7FC07FD2-F243-429A-9704-AD484227D444}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="29070" windowHeight="16500" xr2:uid="{7FC07FD2-F243-429A-9704-AD484227D444}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="12">
   <si>
     <t>W</t>
   </si>
@@ -37,9 +33,6 @@
   </si>
   <si>
     <t>PB</t>
-  </si>
-  <si>
-    <t>w</t>
   </si>
   <si>
     <t>0 =space</t>
@@ -54,10 +47,16 @@
     <t>PB=penetratedbullet</t>
   </si>
   <si>
-    <t>W=steel Wall</t>
+    <t>SW</t>
   </si>
   <si>
-    <t>w=Wall</t>
+    <t>SW=steel Wall</t>
+  </si>
+  <si>
+    <t>W=Wall</t>
+  </si>
+  <si>
+    <t>EG = ExitGate</t>
   </si>
 </sst>
 </file>
@@ -410,64 +409,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62092E0E-F4EF-40B8-8EF7-5845A2AD659A}">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -494,7 +493,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -506,42 +505,42 @@
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -552,22 +551,22 @@
       <c r="N3">
         <v>0</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
@@ -576,19 +575,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -600,12 +599,12 @@
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -614,45 +613,45 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N5" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O5" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -661,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -679,24 +678,24 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -705,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -738,21 +737,21 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -767,36 +766,36 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -805,45 +804,45 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L9" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
@@ -852,51 +851,51 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L10" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -905,33 +904,33 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -943,42 +942,42 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J12" t="s">
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -990,42 +989,42 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G13" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J13" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K13" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1037,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F14" t="s">
         <v>2</v>
@@ -1061,80 +1060,80 @@
         <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N14" t="s">
         <v>1</v>
       </c>
       <c r="O14" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G15" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H15" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I15" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J15" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K15" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L15" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M15" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N15" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O15" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
@@ -1147,7 +1146,13 @@
         <v>10</v>
       </c>
     </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>